--- a/Data analytics/Language tests/Data/one_test_dichotomous_analysis_NRT.xlsx
+++ b/Data analytics/Language tests/Data/one_test_dichotomous_analysis_NRT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
   <si>
     <t>Student</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>kurt/SEK</t>
+  </si>
+  <si>
+    <t>[7, 8, 10]</t>
+  </si>
+  <si>
+    <t>[35.0, 40.0, 50.0]</t>
   </si>
 </sst>
 </file>
@@ -3659,10 +3665,10 @@
         <v>64</v>
       </c>
       <c r="B50">
-        <v>10.833</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="C50">
-        <v>54.167</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="D50">
         <v>-0.01</v>
@@ -3675,11 +3681,11 @@
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B51">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>35</v>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3701,7 +3707,7 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>55</v>
+        <v>55.00000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3753,10 +3759,10 @@
         <v>72</v>
       </c>
       <c r="B58">
-        <v>3.578</v>
+        <v>3.578485092263982</v>
       </c>
       <c r="C58">
-        <v>17.892</v>
+        <v>17.89242546131991</v>
       </c>
       <c r="D58">
         <v>0.998</v>
@@ -3770,10 +3776,10 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>3.64</v>
+        <v>3.639660208973031</v>
       </c>
       <c r="C59">
-        <v>18.198</v>
+        <v>18.19830104486516</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3781,10 +3787,10 @@
         <v>74</v>
       </c>
       <c r="B60">
-        <v>12.806</v>
+        <v>12.80555555555556</v>
       </c>
       <c r="C60">
-        <v>3.201</v>
+        <v>3.20138888888889</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3792,10 +3798,10 @@
         <v>75</v>
       </c>
       <c r="B61">
-        <v>13.247</v>
+        <v>13.24712643678161</v>
       </c>
       <c r="C61">
-        <v>3.312</v>
+        <v>3.311781609195403</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3825,10 +3831,10 @@
         <v>78</v>
       </c>
       <c r="B64">
-        <v>0.07000000000000001</v>
+        <v>0.06990099391759312</v>
       </c>
       <c r="C64">
-        <v>0.07000000000000001</v>
+        <v>0.06990099391759404</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3836,10 +3842,10 @@
         <v>79</v>
       </c>
       <c r="B65">
-        <v>0.427</v>
+        <v>0.4268923959512381</v>
       </c>
       <c r="C65">
-        <v>0.427</v>
+        <v>0.4268923959512381</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3847,10 +3853,10 @@
         <v>80</v>
       </c>
       <c r="B66">
-        <v>0.164</v>
+        <v>0.1637438253305818</v>
       </c>
       <c r="C66">
-        <v>0.164</v>
+        <v>0.163743825330584</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3858,10 +3864,10 @@
         <v>81</v>
       </c>
       <c r="B67">
-        <v>-0.193</v>
+        <v>-0.1934961721429884</v>
       </c>
       <c r="C67">
-        <v>-0.193</v>
+        <v>-0.1934961721429884</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3869,10 +3875,10 @@
         <v>82</v>
       </c>
       <c r="B68">
-        <v>0.833</v>
+        <v>0.8327456183576328</v>
       </c>
       <c r="C68">
-        <v>0.833</v>
+        <v>0.8327456183576328</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3880,10 +3886,10 @@
         <v>83</v>
       </c>
       <c r="B69">
-        <v>-0.232</v>
+        <v>-0.2323592798057679</v>
       </c>
       <c r="C69">
-        <v>-0.232</v>
+        <v>-0.2323592798057679</v>
       </c>
     </row>
   </sheetData>

--- a/Data analytics/Language tests/Data/one_test_dichotomous_analysis_NRT.xlsx
+++ b/Data analytics/Language tests/Data/one_test_dichotomous_analysis_NRT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
   <si>
     <t>Student</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>[35.0, 40.0, 50.0]</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>SEM</t>
   </si>
 </sst>
 </file>
@@ -348,15 +357,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>125689</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>24825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -374,7 +383,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="9144000"/>
+          <a:off x="5486400" y="8191500"/>
           <a:ext cx="10488889" cy="4596825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3643,7 +3652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3659,8 +3668,14 @@
       <c r="E49" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3676,8 +3691,14 @@
       <c r="E50">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50">
+        <v>0.6751455645621645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3687,8 +3708,14 @@
       <c r="C51" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51">
+        <v>2.039593469411941</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3699,7 +3726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -3710,7 +3737,7 @@
         <v>55.00000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3721,7 +3748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
@@ -3732,7 +3759,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
@@ -3743,7 +3770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -3754,7 +3781,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -3771,7 +3798,7 @@
         <v>9.984</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
@@ -3782,7 +3809,7 @@
         <v>18.19830104486516</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -3793,7 +3820,7 @@
         <v>3.20138888888889</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,7 +3831,7 @@
         <v>3.311781609195403</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>76</v>
       </c>
@@ -3815,7 +3842,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>77</v>
       </c>
@@ -3826,7 +3853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>78</v>
       </c>

--- a/Data analytics/Language tests/Data/one_test_dichotomous_analysis_NRT.xlsx
+++ b/Data analytics/Language tests/Data/one_test_dichotomous_analysis_NRT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>Student</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>SEM</t>
+  </si>
+  <si>
+    <t>Reliable?</t>
+  </si>
+  <si>
+    <t>New No of Items</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -3695,7 +3704,7 @@
         <v>87</v>
       </c>
       <c r="H50">
-        <v>0.6751455645621645</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3712,7 +3721,7 @@
         <v>88</v>
       </c>
       <c r="H51">
-        <v>2.039593469411941</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3725,6 +3734,12 @@
       <c r="C52">
         <v>40</v>
       </c>
+      <c r="G52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
@@ -3735,6 +3750,12 @@
       </c>
       <c r="C53">
         <v>55.00000000000001</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53">
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:8">

--- a/Data analytics/Language tests/Data/one_test_dichotomous_analysis_NRT.xlsx
+++ b/Data analytics/Language tests/Data/one_test_dichotomous_analysis_NRT.xlsx
@@ -286,7 +286,7 @@
     <t>Reliable?</t>
   </si>
   <si>
-    <t>New No of Items</t>
+    <t>New No of Items (0.800)</t>
   </si>
   <si>
     <t>NO</t>
